--- a/数据整理/stocks/其他/CVX-雪佛龙.xlsx
+++ b/数据整理/stocks/其他/CVX-雪佛龙.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>378546</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根全球天然资源混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/CVX-雪佛龙.xlsx
+++ b/数据整理/stocks/其他/CVX-雪佛龙.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3171</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/CVX-雪佛龙.xlsx
+++ b/数据整理/stocks/其他/CVX-雪佛龙.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/CVX-雪佛龙.xlsx
+++ b/数据整理/stocks/其他/CVX-雪佛龙.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1110,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.32</v>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8498</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1105,14 +1148,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.45</v>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6529</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1121,14 +1186,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.11</v>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1137,13 +1224,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.93</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/CVX-雪佛龙.xlsx
+++ b/数据整理/stocks/其他/CVX-雪佛龙.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1267,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,17 +1279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1298,14 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.88</v>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1314,14 +1357,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>000049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.32</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="4">
@@ -1330,14 +1463,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5">
@@ -1346,14 +1479,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>3.11</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6">
@@ -1362,13 +1495,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.93</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/CVX-雪佛龙.xlsx
+++ b/数据整理/stocks/其他/CVX-雪佛龙.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.31</v>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8722</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.88</v>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8722</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.32</v>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1479,14 +1566,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2656</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.45</v>
       </c>
     </row>
     <row r="6">
@@ -1495,14 +1604,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2656</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>3.11</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7">
@@ -1511,13 +1758,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.93</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/CVX-雪佛龙.xlsx
+++ b/数据整理/stocks/其他/CVX-雪佛龙.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8625</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>378546</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根全球天然资源混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0708</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+      <c r="D5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -640,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001481</t>
+          <t>162411</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)美元</t>
+          <t>华宝油气(QDII)人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.02</t>
+          <t>41.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1744</t>
+          <t>0.8722</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -678,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162411</t>
+          <t>001481</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)人民币A</t>
+          <t>华宝油气(QDII)美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.02</t>
+          <t>41.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1744</t>
+          <t>0.8722</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -716,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160416</t>
+          <t>007844</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
+          <t>华宝油气(QDII)人民币C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>15.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5691</t>
+          <t>0.3227</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -754,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007844</t>
+          <t>160416</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)人民币C</t>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1193</t>
+          <t>0.2656</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -792,32 +808,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>378546</t>
+          <t>014982</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根全球天然资源混合(QDII)</t>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0745</t>
+          <t>0.2656</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -856,7 +872,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -896,22 +912,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>95.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3919</t>
+          <t>0.3100</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -924,36 +940,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>378546</t>
+          <t>000049</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根全球天然资源混合(QDII)</t>
+          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>89.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0581</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -962,6 +978,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8498</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6529</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1048,214 +1272,6 @@
       </c>
       <c r="H2" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001481</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>37.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8498</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162411</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>28.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6529</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.62</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2899</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007844</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0899</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1306,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1330,22 +1346,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.08</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3100</t>
+          <t>0.3919</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1358,36 +1374,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000049</t>
+          <t>378546</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
+          <t>上投摩根全球天然资源混合(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>92.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0581</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1438,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1452,36 +1468,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162411</t>
+          <t>001481</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)人民币A</t>
+          <t>华宝油气(QDII)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.73</t>
+          <t>43.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8722</t>
+          <t>1.1744</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1490,36 +1506,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001481</t>
+          <t>162411</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)美元</t>
+          <t>华宝油气(QDII)人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.73</t>
+          <t>43.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8722</t>
+          <t>1.1744</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1528,36 +1544,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007844</t>
+          <t>160416</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)人民币C</t>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.44</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3227</t>
+          <t>0.5691</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1566,36 +1582,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160416</t>
+          <t>007844</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
+          <t>华宝油气(QDII)人民币C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2656</t>
+          <t>0.1193</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1604,32 +1620,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>014982</t>
+          <t>378546</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数（QDII-LOF）C</t>
+          <t>上投摩根全球天然资源混合(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2656</t>
+          <t>0.0745</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1647,144 +1663,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.6</v>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8625</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+          <t>378546</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根全球天然资源混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.93</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/CVX-雪佛龙.xlsx
+++ b/数据整理/stocks/其他/CVX-雪佛龙.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.31</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.88</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.32</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>3.11</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.93</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -845,7 +994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -977,7 +1126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1185,7 +1334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1279,7 +1428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1411,7 +1560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1657,7 +1806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/CVX-雪佛龙.xlsx
+++ b/数据整理/stocks/其他/CVX-雪佛龙.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.26</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.31</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.88</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.32</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>3.11</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.93</v>
       </c>
     </row>
@@ -616,7 +633,461 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8625</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>378546</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根全球天然资源混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0421</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气（QDII）人民币 C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5805</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝油气（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4616</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011706</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -748,7 +1219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -994,7 +1465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1126,7 +1597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1334,7 +1805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1428,7 +1899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1560,7 +2031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1804,136 +2275,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8625</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>378546</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根全球天然资源混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0708</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>